--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c52afaf65c96a649/Documentos/GitHub/Programacion-_basica2025/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_DE08E601CE3092CF57BF9511EAA4D343830903C1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60A6F25B-4076-4C65-94E4-7D5DC5846DB2}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -31,8 +37,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,12 +55,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -84,24 +102,88 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>365772</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>53349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD265A74-8992-9CC6-E426-9DC87B78C22B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="419100"/>
+          <a:ext cx="5852172" cy="4389129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -139,7 +221,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -173,6 +255,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -207,9 +290,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -382,14 +466,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -400,18 +486,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>15</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>